--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dany\Documents\SOLID Project\Airport-of-Yeet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9543A04B-FFBF-4CE3-BC85-3D913503324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{817E8102-5634-4CB7-9F21-2D7405E08992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
   <si>
     <t>Identificador</t>
   </si>
@@ -29,30 +29,6 @@
   </si>
   <si>
     <t>Apellidos</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>Remen</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Allos</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Caritas</t>
-  </si>
-  <si>
-    <t>Luisa</t>
-  </si>
-  <si>
-    <t>Vitz</t>
   </si>
 </sst>
 </file>
@@ -401,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -437,10 +413,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -448,10 +424,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -459,21 +435,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
